--- a/Excel/class5final.xlsx
+++ b/Excel/class5final.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/WORK/Personal/xlsx_to_vcf/Excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80415B2D-D9FC-D94F-8969-724B6B490A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="21015" windowHeight="9975"/>
+    <workbookView xWindow="360" yWindow="500" windowWidth="21020" windowHeight="9980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="a" sheetId="1" r:id="rId1"/>
@@ -24,9 +30,6 @@
     <t>5-B</t>
   </si>
   <si>
-    <t>Mobile number</t>
-  </si>
-  <si>
     <t>Aksh Prajapati</t>
   </si>
   <si>
@@ -289,13 +292,16 @@
   </si>
   <si>
     <t>Last</t>
+  </si>
+  <si>
+    <t>Phone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,12 +313,14 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -416,15 +424,23 @@
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
-    <cellStyle name="Normal 4" xfId="3"/>
-    <cellStyle name="Normal 5" xfId="4"/>
-    <cellStyle name="Normal 6" xfId="5"/>
-    <cellStyle name="Normal 7" xfId="6"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 5" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 6" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 7" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -471,7 +487,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -503,9 +519,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -537,6 +571,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -712,370 +764,370 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
       </c>
       <c r="C2" s="3">
         <v>8218823228</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="3">
         <v>7570000641</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3">
         <v>7060920341</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3">
         <v>7906658424</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3">
         <v>7906314544</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="3">
         <v>8445848770</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="3">
         <v>9024190957</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="3">
         <v>9528201685</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="3">
         <v>9359344541</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="3">
         <v>6397949261</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="3">
         <v>7017301634</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="3">
         <v>8218907924</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="3">
         <v>9457606438</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="3">
         <v>7310906974</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="3">
         <v>7983228445</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="3">
         <v>7417544919</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="3">
         <v>9548953601</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="3">
         <v>8445334800</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="3">
         <v>9634940034</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="3">
         <v>9997153107</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="3">
         <v>7895131968</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="3">
         <v>7017801963</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="3">
         <v>9927250620</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="3">
         <v>7017672294</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="5">
         <v>8864866977</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="5">
         <v>9368458840</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="5">
         <v>7906231857</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="5">
         <v>9837087162</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="5">
         <v>9045941426</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="5">
         <v>9675918382</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1084,344 +1136,344 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="10">
         <v>7017672294</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="26.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="10">
         <v>8630890168</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="10">
         <v>7060905205</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="10">
         <v>8865851730</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="10">
         <v>9627089844</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="10">
         <v>8267911137</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="10">
         <v>8077713848</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="13">
         <v>9219121325</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="10">
         <v>6395132020</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="10">
         <v>8810044454</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="10">
         <v>9358915183</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="10">
         <v>8800193929</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="10">
         <v>7579914501</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="10">
         <v>9149043503</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="10">
         <v>8580408243</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="10">
         <v>9911384821</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="10">
         <v>7206816131</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="11">
         <v>6398447982</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="11">
         <v>6395911186</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" s="11">
         <v>9358307066</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="11">
         <v>6395226260</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="11">
         <v>7668692945</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" s="11">
         <v>7983565480</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="11">
         <v>9058000081</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B26" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>59</v>
       </c>
       <c r="C27" s="11">
         <v>9690964857</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C28" s="11">
         <v>8267991384</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C29" s="11">
         <v>7988134634</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="11">
         <v>7988134634</v>
@@ -1433,300 +1485,300 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>63</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>64</v>
       </c>
       <c r="C2" s="17">
         <v>8923138773</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="17">
         <v>9627771684</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="17">
         <v>7505364366</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="26.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="17">
         <v>9897453689</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" s="17">
         <v>9897780721</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="17">
         <v>7037023177</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" s="17">
         <v>9756147661</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="17">
         <v>9058496948</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="17">
         <v>8410243808</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" s="17">
         <v>9997875029</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" s="17">
         <v>9058013783</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" s="17">
         <v>8077875315</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C14" s="17">
         <v>9068497607</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="17">
         <v>8449133398</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" s="18">
         <v>9536573197</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C17" s="18">
         <v>9417874374</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" s="18">
         <v>9997054668</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" s="18">
         <v>9837371889</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" s="18">
         <v>9557326776</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21" s="18">
         <v>7017153716</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" s="18">
         <v>9897353350</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C23" s="18">
         <v>6397038496</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C24" s="18">
         <v>9412648205</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C25" s="18">
         <v>9897642837</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C26" s="18">
         <v>8171929464</v>
